--- a/mzyz.xlsx
+++ b/mzyz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8B7B76-6F88-43D4-BD15-9BD570413078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A43886F-1265-43AD-A8E8-228C5FC12306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="2760" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,13 +459,13 @@
         <v>100</v>
       </c>
       <c r="D2" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>8</v>
       </c>
       <c r="F2" s="2">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -476,16 +476,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2">
         <v>12</v>
       </c>
       <c r="F3" s="2">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -496,16 +496,16 @@
         <v>100</v>
       </c>
       <c r="C4" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -516,16 +516,16 @@
         <v>100</v>
       </c>
       <c r="C5" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2">
         <v>25</v>
       </c>
       <c r="E5" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -533,19 +533,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2">
         <v>80</v>
       </c>
       <c r="D6" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>8</v>
       </c>
       <c r="F6" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
